--- a/bin/Debug/DataBase.xlsx
+++ b/bin/Debug/DataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Documents\Faculdade\V Semestre\C# - Fernando\MarcenariaMarcelus\Marcenaria_ConsoleApp\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Documents\Faculdade\V Semestre\C# - Fernando\Marcenaria_ConsoleApp\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C1CD65-A0CA-4CC3-8D87-7330EBF85696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F22A6B-FE6C-4AE1-B10B-241882C0A52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
